--- a/sample/wording.xlsx
+++ b/sample/wording.xlsx
@@ -3,7 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Feuille 1" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="Commons" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="Test" sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="Phone" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
   <si>
     <t>Key</t>
   </si>
@@ -31,6 +33,9 @@
     <t>key1</t>
   </si>
   <si>
+    <t>dialpad_call</t>
+  </si>
+  <si>
     <t>sample key</t>
   </si>
   <si>
@@ -67,7 +72,40 @@
     <t>en value 3</t>
   </si>
   <si>
-    <t>fr value 3</t>
+    <t>fr value 33</t>
+  </si>
+  <si>
+    <t>Start call</t>
+  </si>
+  <si>
+    <t>Appeler</t>
+  </si>
+  <si>
+    <t>dialpad_delete</t>
+  </si>
+  <si>
+    <t>Delete last number</t>
+  </si>
+  <si>
+    <t>Supprimer le dernier appel</t>
+  </si>
+  <si>
+    <t>avatar_content_description</t>
+  </si>
+  <si>
+    <t>Avatar</t>
+  </si>
+  <si>
+    <t>call_status_connecting</t>
+  </si>
+  <si>
+    <t>Connecting…</t>
+  </si>
+  <si>
+    <t>Connexion…</t>
+  </si>
+  <si>
+    <t>call_status_calling</t>
   </si>
   <si>
     <t>es value 3</t>
@@ -86,6 +124,48 @@
   </si>
   <si>
     <t>sections[1]</t>
+  </si>
+  <si>
+    <t>Calling…</t>
+  </si>
+  <si>
+    <t>Appel…</t>
+  </si>
+  <si>
+    <t>call_status_ringing</t>
+  </si>
+  <si>
+    <t>Incoming call</t>
+  </si>
+  <si>
+    <t>Appel entrant</t>
+  </si>
+  <si>
+    <t>call_status_disconnected</t>
+  </si>
+  <si>
+    <t>Call ended</t>
+  </si>
+  <si>
+    <t>Appel termine</t>
+  </si>
+  <si>
+    <t>whatsapp_audio</t>
+  </si>
+  <si>
+    <t>Audio call using WhatsApp</t>
+  </si>
+  <si>
+    <t>Appel via WhatsApp</t>
+  </si>
+  <si>
+    <t>whatsapp_video</t>
+  </si>
+  <si>
+    <t>Video call using WhatsApp</t>
+  </si>
+  <si>
+    <t>Visio via WhatsApp</t>
   </si>
   <si>
     <t>en section 2</t>
@@ -101,7 +181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -109,6 +189,13 @@
     </font>
     <font>
       <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+    </font>
+    <font>
+      <name val="Arial"/>
     </font>
     <font/>
     <font>
@@ -142,18 +229,30 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -164,6 +263,14 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -179,7 +286,45 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="34.57"/>
     <col customWidth="1" min="2" max="2" width="30.43"/>
+    <col customWidth="1" min="3" max="3" width="35.14"/>
+    <col customWidth="1" min="4" max="4" width="36.71"/>
+    <col customWidth="1" min="5" max="5" width="26.86"/>
   </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -199,82 +344,249 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="34.57"/>
+    <col customWidth="1" min="2" max="2" width="30.43"/>
+    <col customWidth="1" min="3" max="3" width="35.14"/>
+    <col customWidth="1" min="4" max="4" width="36.71"/>
+    <col customWidth="1" min="5" max="5" width="26.86"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
+      <c r="A3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
+      <c r="A4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
+      <c r="A5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>27</v>
+      <c r="A6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
